--- a/papers/Index.xlsx
+++ b/papers/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuwang/Desktop/UChicago/NIH/TSFSER/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{332C0E4C-72E5-2B48-866F-C5192656D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FE67A-AC96-774D-BE42-EABD964F3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="9240" windowWidth="28240" windowHeight="15800" xr2:uid="{F2F05320-771F-1C4A-A845-0C9AE542F80E}"/>
+    <workbookView xWindow="7520" yWindow="5640" windowWidth="28800" windowHeight="15800" xr2:uid="{F2F05320-771F-1C4A-A845-0C9AE542F80E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,20 @@
   </si>
   <si>
     <t xml:space="preserve">Progressive Neural Networks for Transfer Learning in Emotion Recognition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Domain Confusion: Maximizing for Domain Invariance </t>
+  </si>
+  <si>
+    <t>目前比较可行的一种做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Transferable Features with Deep Adaptation Networks</t>
+  </si>
+  <si>
+    <t>[3]的升级版，但是细节比较复杂没看懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E7BC7D-36DB-8248-8C76-0ED8EF48CAEC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -480,6 +494,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
